--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H2">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I2">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J2">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>55.63237424314249</v>
+        <v>223.804906241828</v>
       </c>
       <c r="R2">
-        <v>222.52949697257</v>
+        <v>895.219624967312</v>
       </c>
       <c r="S2">
-        <v>0.03453200098446169</v>
+        <v>0.1664287783823085</v>
       </c>
       <c r="T2">
-        <v>0.0226775609739161</v>
+        <v>0.12908345322527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H3">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I3">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J3">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
-        <v>70.90080916873767</v>
+        <v>280.4650886162706</v>
       </c>
       <c r="R3">
-        <v>425.404855012426</v>
+        <v>1682.790531697624</v>
       </c>
       <c r="S3">
-        <v>0.04400938923284897</v>
+        <v>0.2085631761211499</v>
       </c>
       <c r="T3">
-        <v>0.04335220574975451</v>
+        <v>0.2426448290767185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H4">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I4">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J4">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>39.83397750680233</v>
+        <v>152.5870096113853</v>
       </c>
       <c r="R4">
-        <v>239.003865040814</v>
+        <v>915.522057668312</v>
       </c>
       <c r="S4">
-        <v>0.02472565604459132</v>
+        <v>0.1134687797201036</v>
       </c>
       <c r="T4">
-        <v>0.02435643272555804</v>
+        <v>0.1320109003553688</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H5">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I5">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J5">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>96.6210840160545</v>
+        <v>343.684083559182</v>
       </c>
       <c r="R5">
-        <v>386.484336064218</v>
+        <v>1374.736334236728</v>
       </c>
       <c r="S5">
-        <v>0.05997441981857218</v>
+        <v>0.2555749252180947</v>
       </c>
       <c r="T5">
-        <v>0.03938588913289162</v>
+        <v>0.1982258971411684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H6">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I6">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J6">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>43.61041850515067</v>
+        <v>23.450193061624</v>
       </c>
       <c r="R6">
-        <v>261.662511030904</v>
+        <v>140.701158369744</v>
       </c>
       <c r="S6">
-        <v>0.02706975992379617</v>
+        <v>0.01743834417936437</v>
       </c>
       <c r="T6">
-        <v>0.02666553256633099</v>
+        <v>0.02028797279307335</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H7">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I7">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J7">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>36.67351400095733</v>
+        <v>106.1237356832827</v>
       </c>
       <c r="R7">
-        <v>220.041084005744</v>
+        <v>636.742414099696</v>
       </c>
       <c r="S7">
-        <v>0.02276390031548639</v>
+        <v>0.07891714254043813</v>
       </c>
       <c r="T7">
-        <v>0.02242397150577275</v>
+        <v>0.09181312309812775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J8">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N8">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O8">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P8">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q8">
-        <v>16.90037366792333</v>
+        <v>17.18742029888933</v>
       </c>
       <c r="R8">
-        <v>101.40224200754</v>
+        <v>103.124521793336</v>
       </c>
       <c r="S8">
-        <v>0.01049036155796347</v>
+        <v>0.01278113787548789</v>
       </c>
       <c r="T8">
-        <v>0.01033371106888018</v>
+        <v>0.01486972471785846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J9">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P9">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q9">
         <v>21.53872065701911</v>
@@ -1013,10 +1013,10 @@
         <v>193.848485913172</v>
       </c>
       <c r="S9">
-        <v>0.01336946576613006</v>
+        <v>0.01601690966949646</v>
       </c>
       <c r="T9">
-        <v>0.01975473327717604</v>
+        <v>0.0279513889846595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J10">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N10">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O10">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P10">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q10">
-        <v>12.10103134556755</v>
+        <v>11.71813929542622</v>
       </c>
       <c r="R10">
-        <v>108.909282110108</v>
+        <v>105.463253658836</v>
       </c>
       <c r="S10">
-        <v>0.007511324692198436</v>
+        <v>0.008713998457854281</v>
       </c>
       <c r="T10">
-        <v>0.01109873935490827</v>
+        <v>0.01520695099948487</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J11">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N11">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O11">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P11">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q11">
-        <v>29.352197282366</v>
+        <v>26.393714478214</v>
       </c>
       <c r="R11">
-        <v>176.113183694196</v>
+        <v>158.362286869284</v>
       </c>
       <c r="S11">
-        <v>0.01821942923055664</v>
+        <v>0.01962724468977542</v>
       </c>
       <c r="T11">
-        <v>0.01794736210646228</v>
+        <v>0.02283456514984735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J12">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N12">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O12">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P12">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q12">
-        <v>13.24826377767644</v>
+        <v>1.800891370114667</v>
       </c>
       <c r="R12">
-        <v>119.234373999088</v>
+        <v>16.208022331032</v>
       </c>
       <c r="S12">
-        <v>0.008223432201790727</v>
+        <v>0.001339202771558408</v>
       </c>
       <c r="T12">
-        <v>0.01215094997893396</v>
+        <v>0.002337066161299015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J13">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N13">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O13">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P13">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q13">
-        <v>11.14092466417422</v>
+        <v>8.149925216143112</v>
       </c>
       <c r="R13">
-        <v>100.268321977568</v>
+        <v>73.349326945288</v>
       </c>
       <c r="S13">
-        <v>0.006915369453578551</v>
+        <v>0.006060555688463135</v>
       </c>
       <c r="T13">
-        <v>0.0102181554190941</v>
+        <v>0.01057638164957882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H14">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I14">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J14">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N14">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O14">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P14">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q14">
-        <v>105.5741504588962</v>
+        <v>25.281803999853</v>
       </c>
       <c r="R14">
-        <v>422.2966018355849</v>
+        <v>101.127215999412</v>
       </c>
       <c r="S14">
-        <v>0.06553174688620621</v>
+        <v>0.01880039104437699</v>
       </c>
       <c r="T14">
-        <v>0.04303544953586314</v>
+        <v>0.01458172932339203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H15">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I15">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J15">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P15">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q15">
-        <v>134.5492224028255</v>
+        <v>31.682341188429</v>
       </c>
       <c r="R15">
-        <v>807.2953344169529</v>
+        <v>190.094047130574</v>
       </c>
       <c r="S15">
-        <v>0.08351708773323913</v>
+        <v>0.02356004356126249</v>
       </c>
       <c r="T15">
-        <v>0.08226994362214866</v>
+        <v>0.02741002917812229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H16">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I16">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J16">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N16">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O16">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P16">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q16">
-        <v>75.59336432954449</v>
+        <v>17.236775255277</v>
       </c>
       <c r="R16">
-        <v>453.5601859772669</v>
+        <v>103.420651531662</v>
       </c>
       <c r="S16">
-        <v>0.04692214141423903</v>
+        <v>0.01281783986400389</v>
       </c>
       <c r="T16">
-        <v>0.0462214623803695</v>
+        <v>0.01491242423891421</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H17">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I17">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J17">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N17">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O17">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P17">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q17">
-        <v>183.3588625362322</v>
+        <v>38.8237853419695</v>
       </c>
       <c r="R17">
-        <v>733.435450144929</v>
+        <v>155.295141367878</v>
       </c>
       <c r="S17">
-        <v>0.1138140966973278</v>
+        <v>0.02887065916088196</v>
       </c>
       <c r="T17">
-        <v>0.07474302223917501</v>
+        <v>0.02239230749393382</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H18">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I18">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J18">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N18">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O18">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P18">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q18">
-        <v>82.75995672440199</v>
+        <v>2.649017819574</v>
       </c>
       <c r="R18">
-        <v>496.559740346412</v>
+        <v>15.894106917444</v>
       </c>
       <c r="S18">
-        <v>0.05137057236836032</v>
+        <v>0.001969897832124783</v>
       </c>
       <c r="T18">
-        <v>0.05060346579710175</v>
+        <v>0.002291802089247359</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H19">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I19">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J19">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N19">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O19">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P19">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q19">
-        <v>69.59571899757199</v>
+        <v>11.988117375666</v>
       </c>
       <c r="R19">
-        <v>417.5743139854319</v>
+        <v>71.928704253996</v>
       </c>
       <c r="S19">
-        <v>0.04319929662600575</v>
+        <v>0.00891476314545124</v>
       </c>
       <c r="T19">
-        <v>0.04255421009518158</v>
+        <v>0.01037153930965711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H20">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I20">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J20">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N20">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O20">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P20">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q20">
-        <v>82.9858683176725</v>
+        <v>0.03627416094433333</v>
       </c>
       <c r="R20">
-        <v>497.915209906035</v>
+        <v>0.217644965666</v>
       </c>
       <c r="S20">
-        <v>0.05151079969943059</v>
+        <v>2.697467358595531E-05</v>
       </c>
       <c r="T20">
-        <v>0.05074159914124186</v>
+        <v>3.138264953283216E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H21">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I21">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J21">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>31.672871</v>
       </c>
       <c r="O21">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P21">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q21">
-        <v>105.7615335196403</v>
+        <v>0.04545760830077778</v>
       </c>
       <c r="R21">
-        <v>951.8538016767631</v>
+        <v>0.409118474707</v>
       </c>
       <c r="S21">
-        <v>0.06564805887407509</v>
+        <v>3.380379074221558E-05</v>
       </c>
       <c r="T21">
-        <v>0.0970016241417172</v>
+        <v>5.89915859980875E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H22">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I22">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J22">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N22">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O22">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P22">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q22">
-        <v>59.41966807853966</v>
+        <v>0.02473120825455555</v>
       </c>
       <c r="R22">
-        <v>534.7770127068569</v>
+        <v>0.222580874291</v>
       </c>
       <c r="S22">
-        <v>0.03688284141202983</v>
+        <v>1.839094971973804E-05</v>
       </c>
       <c r="T22">
-        <v>0.05449811588170414</v>
+        <v>3.209436776638033E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H23">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I23">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J23">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N23">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O23">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P23">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q23">
-        <v>144.1280309163765</v>
+        <v>0.05570410394649999</v>
       </c>
       <c r="R23">
-        <v>864.7681854982591</v>
+        <v>0.334224623679</v>
       </c>
       <c r="S23">
-        <v>0.08946282399777912</v>
+        <v>4.14234259935293E-05</v>
       </c>
       <c r="T23">
-        <v>0.08812689338598952</v>
+        <v>4.819249642675892E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H24">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I24">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J24">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N24">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O24">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P24">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q24">
-        <v>65.05292101196133</v>
+        <v>0.003800792804666667</v>
       </c>
       <c r="R24">
-        <v>585.4762891076521</v>
+        <v>0.034207135242</v>
       </c>
       <c r="S24">
-        <v>0.04037950137826554</v>
+        <v>2.826396051753395E-06</v>
       </c>
       <c r="T24">
-        <v>0.05966478343613706</v>
+        <v>4.932393145584158E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H25">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I25">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J25">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N25">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O25">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P25">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q25">
-        <v>54.70525831467467</v>
+        <v>0.01720046951977778</v>
       </c>
       <c r="R25">
-        <v>492.347324832072</v>
+        <v>0.154804225678</v>
       </c>
       <c r="S25">
-        <v>0.03395652369106705</v>
+        <v>1.279084171052785E-05</v>
       </c>
       <c r="T25">
-        <v>0.05017418648369148</v>
+        <v>2.232152140890555E-05</v>
       </c>
     </row>
   </sheetData>
